--- a/Datascraping/output_excel_files_new/Kanpur Institute of Technology_tables.xlsx
+++ b/Datascraping/output_excel_files_new/Kanpur Institute of Technology_tables.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M56"/>
+  <dimension ref="A1:M50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -568,12 +568,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1036</t>
+          <t>956</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1036</t>
+          <t>956</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -784,27 +784,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1634</t>
+          <t>1525</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>263</t>
+          <t>257</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1897</t>
+          <t>1782</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>436</t>
+          <t>414</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>1453</t>
+          <t>1360</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -814,12 +814,12 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>274</t>
+          <t>268</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>928</t>
+          <t>885</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -829,7 +829,7 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>967</t>
+          <t>929</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
@@ -839,7 +839,7 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>78</t>
         </is>
       </c>
     </row>
@@ -1012,8 +1012,8 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>1920000(Nineteen-Lakh Twenty+          <t>1915000(Nineteen+Lakh Fifteen Thousand)</t>
         </is>
       </c>
@@ -1148,12 +1148,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>976</t>
+          <t>896</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>904</t>
+          <t>827</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1163,23 +1163,22 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>818</t>
+          <t>743</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>534</t>
+          <t>461</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>1450000(Fourteen-Lakh Fifty Thousand)</t>
+          <t>1500000(Fifteen Lakh)</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>282</t>
+          <t>280</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1196,12 +1195,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>990</t>
+          <t>910</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>940</t>
+          <t>870</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1211,23 +1210,24 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>805</t>
+          <t>736</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>418</t>
+          <t>356</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>1686000(Sixteen Lakh-Eighty Six Thousand)</t>
+          <t>1769000(Seventeen+Lakh Sixty Nine+Thousand)</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>298</t>
+          <t>294</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -1244,12 +1244,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>1036</t>
+          <t>956</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>1028</t>
+          <t>953</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1259,18 +1259,18 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>845</t>
+          <t>772</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>656</t>
+          <t>583</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>1527000(Fifteen Lakh-Twenty Seven+          <t>1529000(Fifteen Lakh+Twenty Nine Thousand)</t>
         </is>
       </c>
@@ -1331,7 +1331,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2209</t>
+          <t>2136</t>
         </is>
       </c>
       <c r="C18" t="inlineStr"/>
@@ -1354,7 +1354,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C19" t="inlineStr"/>
@@ -1423,17 +1423,17 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>190</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>208</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>235</t>
+          <t>232</t>
         </is>
       </c>
       <c r="E22" t="inlineStr"/>
@@ -1557,22 +1557,22 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Library</t>
+          <t>Library ( Books, Journals and e-Resources only)</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>184609000 (Eighteen Crore Forty Six Lakh Nine Thousand)</t>
+          <t>165902000 (Sixteen Crore Fifty Nine Lakh Two Thousand)</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>179800000 (Seventeen Crore Ninety Eight Lakh)</t>
+          <t>169511000 (Sixteen Crore Ninety Five Lakh Eleven Thousand)</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>179100000 (Seventeen Crore Ninety One Lakh)</t>
+          <t>153018000 (Fifteen Crore Thirty Lakh Eighteen Thousand)</t>
         </is>
       </c>
       <c r="E27" t="inlineStr"/>
@@ -1588,25 +1588,23 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>New Equipment for Laboratories</t>
+          <t>New Equipment and software for Laboratories</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>640307900 (Sixty Four Crore Three Lakh Seven Thousand-Nine Hundred)</t>
+          <t>634400900 (Sixty Three Crore Forty Four Lakh Nine Hundred)</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>878085000 (Eighty Seven Crore Eighty Lakh Eighty Five+          <t>870407000 (Eighty Seven Crore Four Lakh Seven Thousand)</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>685769000 (Sixty Eight Crore Fifty Seven Lakh Sixty Nine Thousand)</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>692279250 (Sixty Nine Crore Twenty Two Lakh Seventy Nine-Thousand Two Hundred Fifty)</t>
         </is>
       </c>
       <c r="E28" t="inlineStr"/>
@@ -1628,17 +1626,17 @@
       <c r="B29" t="inlineStr">
         <is>
           <t>107318500 (Ten Crore Seventy Three Lakh Eighteen-Thousand Five Hundred)</t>
+Thousand Five Hundred )</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>97200000 (Nine Crore Seventy Two Lakh)</t>
+          <t>102500000 (Ten Crore Twenty Five Lakh)</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>93700000 (Nine Crore Thirty Seven Lakh)</t>
+          <t>98500000 (Nine Crore Eighty Five Lakh)</t>
         </is>
       </c>
       <c r="E29" t="inlineStr"/>
@@ -1654,22 +1652,25 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Studios</t>
+          <t>Other expenditure on creation of Capital Assets (For setting up+classrooms, seminar hall, conference hall , library, Lab, Engg+workshops excluding expenditure on Land and Building)</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>5674000 (Fifty Six Lakh Seventy Four Thousand)</t>
+          <t>137118500 (Thirteen Crore Seventy One Lakh Eighteen+Thousand Five Hundred )</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>5334000 (Fifty Three Lakh Thirty Four Thousand)</t>
+          <t>103500000 (Ten Crore Thirty Five Lakh)</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>4808000 (Forty Eight Lakh Eight Thousand)</t>
+          <t>73400000 (Seven Crore Thirty Four Lakh)</t>
         </is>
       </c>
       <c r="E30" t="inlineStr"/>
@@ -1685,24 +1686,22 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Other expenditure on creation of Capital Assets (excluding-expenditure on Land and Building)</t>
+          <t>Financial Year</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>137621500 (Thirteen Crore Seventy Six Lakh Twenty One-Thousand Five Hundred)</t>
+          <t>2021-22</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>103820000 (Ten Crore Thirty Eight Lakh Twenty Thousand)</t>
+          <t>2020-21</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>73605000 (Seven Crore Thirty Six Lakh Five Thousand)</t>
+          <t>2019-20</t>
         </is>
       </c>
       <c r="E31" t="inlineStr"/>
@@ -1716,24 +1715,20 @@
       <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>Financial Year</t>
-        </is>
-      </c>
+      <c r="A32" t="inlineStr"/>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2021-22</t>
+          <t>Utilised Amount</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>2020-21</t>
+          <t>Utilised Amount</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>2019-20</t>
+          <t>Utilised Amount</t>
         </is>
       </c>
       <c r="E32" t="inlineStr"/>
@@ -1747,22 +1742,14 @@
       <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr"/>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>Utilised Amount</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>Utilised Amount</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>Utilised Amount</t>
-        </is>
-      </c>
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Annual Operational Expenditure</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr"/>
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr"/>
@@ -1776,12 +1763,26 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Annual Operational Expenditure</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr"/>
-      <c r="C34" t="inlineStr"/>
-      <c r="D34" t="inlineStr"/>
+          <t>Salaries (Teaching and Non Teaching staff)</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>3132324000 (Three Hundred Thirteen Crore Twenty Three+Lakh Twenty Four Thousand )</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>3072400000 (Three Hundred Seven Crore Twenty Four Lakh)</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2682258000 (Two Hundred Sixty Eight Crore Twenty Two Lakh+Fifty Eight Thousand)</t>
+        </is>
+      </c>
       <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
@@ -1795,24 +1796,27 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Salaries (Teaching and Non Teaching staff)</t>
+          <t>Maintenance of Academic Infrastructure or consumables and+other running expenditures(excluding maintenance of hostels+and allied services,rent of the building, depreciation cost, etc)</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>3183924000 (Three Hundred Eighteen Crore Thirty Nine Lakh-Twenty Four Thousand)</t>
+          <t>3931518000 (Three Hundred Ninety Three Crore Fifteen Lakh+Eighteen Thousand)</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>3128100000 (Three Hundred Twelve Crore Eighty One Lakh)</t>
+          <t>3972820000 (Three Hundred Ninety Seven Crore Twenty Eight+Lakh Twenty Thousand)</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>2735758000 (Two Hundred Seventy Three Crore Fifty Seven-Lakh Fifty Eight Thousand)</t>
+          <t>4205644000 (Four Hundred Twenty Crore Fifty Six Lakh Forty+Four Thousand)</t>
         </is>
       </c>
       <c r="E35" t="inlineStr"/>
@@ -1828,26 +1832,22 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Maintenance of Academic Infrastructure or consumables and-other running expenditures(excluding maintenance of hostels-and allied services,rent of the building, depreciation cost, etc)</t>
+          <t>Seminars/Conferences/Workshops</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>3967440000 (Three Hundred Ninety Six Crore Seventy Four-Lakh Forty Thousand)</t>
+          <t>46800000 (Four Crore Sixty Eight Lakh)</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>4013500000 (Four Hundred One Crore Thirty Five Lakh)</t>
+          <t>52100000 (Five Crore Twenty One Lakh)</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>4229880000 (Four Hundred Twenty Two Crore Ninety Eight-Lakh Eighty Thousand)</t>
+          <t>51900000 (Five Crore Nineteen Lakh)</t>
         </is>
       </c>
       <c r="E36" t="inlineStr"/>
@@ -1863,22 +1863,22 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Seminars/Conferences/Workshops</t>
+          <t>Financial Year</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>47800000 (Four Crore Seventy Eight Lakh)</t>
+          <t>2021-22</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>52500000 (Five Crore Twenty Five Lakh)</t>
+          <t>2020-21</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>52400000 (Five Crore Twenty Four Lakh)</t>
+          <t>2019-20</t>
         </is>
       </c>
       <c r="E37" t="inlineStr"/>
@@ -1894,22 +1894,22 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Financial Year</t>
+          <t>Total no. of Sponsored Projects</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2021-22</t>
+          <t>981</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>2020-21</t>
+          <t>879</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>2019-20</t>
+          <t>862</t>
         </is>
       </c>
       <c r="E38" t="inlineStr"/>
@@ -1925,22 +1925,22 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Total no. of Sponsored Projects</t>
+          <t>Total no. of Funding Agencies</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>991</t>
+          <t>218</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>892</t>
+          <t>150</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>870</t>
+          <t>143</t>
         </is>
       </c>
       <c r="E39" t="inlineStr"/>
@@ -1956,22 +1956,22 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Total no. of Funding Agencies</t>
+          <t>Total Amount Received (Amount in Rupees)</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>234</t>
+          <t>2255285600</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>162</t>
+          <t>2612279000</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>2389745000</t>
         </is>
       </c>
       <c r="E40" t="inlineStr"/>
@@ -1987,22 +1987,25 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Total Amount Received (Amount in Rupees)</t>
+          <t>Amount Received in Words</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2302487100</t>
+          <t>Two Hundred Twenty Five Crore Fifty Two Lakh Eighty Five+Thousand Six Hundred</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>2682497000</t>
+          <t>Two Hundred And Sixty One Crore Twenty Two Lakh Seventy+Nine Thousand</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>2507386000</t>
+          <t>Two Hundred Thirty Eight Crore Ninety Seven Lakh Forty Five+Thousand</t>
         </is>
       </c>
       <c r="E41" t="inlineStr"/>
@@ -2018,25 +2021,22 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Amount Received in Words</t>
+          <t>Financial Year</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Two Hundred Thirty Crore Twenty Four Lakh Eighty Seven-Thousand One Hundred</t>
+          <t>2021-22</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Two Hundred Sixty Eight Crore Twenty Four Lakh Ninety-Seven Thousand</t>
+          <t>2020-21</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Two Hundred Fifty Crore Seventy Three Lakh Eighty Six-Thousand</t>
+          <t>2019-20</t>
         </is>
       </c>
       <c r="E42" t="inlineStr"/>
@@ -2052,22 +2052,22 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Financial Year</t>
+          <t>Total no. of Consultancy Projects</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>2021-22</t>
+          <t>381</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>2020-21</t>
+          <t>375</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>2019-20</t>
+          <t>315</t>
         </is>
       </c>
       <c r="E43" t="inlineStr"/>
@@ -2083,22 +2083,22 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Total no. of Consultancy Projects</t>
+          <t>Total no. of Client Organizations</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>386</t>
+          <t>198</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>377</t>
+          <t>126</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>317</t>
+          <t>191</t>
         </is>
       </c>
       <c r="E44" t="inlineStr"/>
@@ -2114,22 +2114,22 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Total no. of Client Organizations</t>
+          <t>Total Amount Received (Amount in Rupees)</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>202</t>
+          <t>356079800</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>128</t>
+          <t>241883900</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>193</t>
+          <t>310320800</t>
         </is>
       </c>
       <c r="E45" t="inlineStr"/>
@@ -2145,22 +2145,24 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Total Amount Received (Amount in Rupees)</t>
+          <t>Amount Received in Words</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>360860600</t>
+          <t>Thirty Five Crore Sixty Lakh Seventy Nine Thousand Eight+Hundred</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>252886900</t>
+          <t>Twenty Four Crore Eighteen Lakh Eighty Three Thousand Nine+Hundred</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>320197000</t>
+          <t>Thirty One Crore Three Lakh Twenty Thousand Eight Hundred</t>
         </is>
       </c>
       <c r="E46" t="inlineStr"/>
@@ -2176,25 +2178,16 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Amount Received in Words</t>
+          <t>1. Do your institution buildings have Lifts/Ramps?</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Thirty Six Crore Eight Lakh Sixty Thousand Six Hundred</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>Twenty Five Crore Twenty Eight Lakh Eighty Six Thousand-Nine Hundred</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>Thirty Two Crore One Lakh Ninety Seven Thousand</t>
-        </is>
-      </c>
+          <t>Yes, more than 80% of the buildings</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr"/>
+      <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr"/>
       <c r="F47" t="inlineStr"/>
       <c r="G47" t="inlineStr"/>
@@ -2208,24 +2201,17 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Financial Year</t>
+          <t>2. Do your institution have provision for walking aids, including wheelchairs and transportation from one building to another for+handicapped students?</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>2021-22</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>2020-21</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>2019-20</t>
-        </is>
-      </c>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr"/>
+      <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr"/>
       <c r="F48" t="inlineStr"/>
       <c r="G48" t="inlineStr"/>
@@ -2239,25 +2225,16 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Total no. of Executive Development Programs/ Management-Development Programs</t>
+          <t>3. Do your institution buildings have specially designed toilets for handicapped students?</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>455</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>130</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>119</t>
-        </is>
-      </c>
+          <t>Yes, more than 80% of the buildings</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr"/>
+      <c r="D49" t="inlineStr"/>
       <c r="E49" t="inlineStr"/>
       <c r="F49" t="inlineStr"/>
       <c r="G49" t="inlineStr"/>
@@ -2271,24 +2248,16 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Total no. of Participants</t>
+          <t>Number of faculty members entered</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>9878</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>4727</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>3827</t>
-        </is>
-      </c>
+          <t>572</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr"/>
+      <c r="D50" t="inlineStr"/>
       <c r="E50" t="inlineStr"/>
       <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr"/>
@@ -2299,162 +2268,6 @@
       <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr"/>
     </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>Total Annual Earnings (Amount in Rupees)(Excluding Lodging-&amp; Boarding Charges)</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>41106000</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>13000000</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>10525000</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr"/>
-      <c r="F51" t="inlineStr"/>
-      <c r="G51" t="inlineStr"/>
-      <c r="H51" t="inlineStr"/>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="inlineStr"/>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>Total Annual Earnings in Words</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>Four Crore Eleven Lakh Six Thousand</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>One Crore Thirty Lakh</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>One Crore Five Lakh Twenty Five Thousand</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr"/>
-      <c r="F52" t="inlineStr"/>
-      <c r="G52" t="inlineStr"/>
-      <c r="H52" t="inlineStr"/>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="inlineStr"/>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>1. Do your institution buildings have Lifts/Ramps?</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>Yes, more than 80% of the buildings</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr"/>
-      <c r="D53" t="inlineStr"/>
-      <c r="E53" t="inlineStr"/>
-      <c r="F53" t="inlineStr"/>
-      <c r="G53" t="inlineStr"/>
-      <c r="H53" t="inlineStr"/>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="inlineStr"/>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>2. Do your institution have provision for walking aids, including wheelchairs and transportation from one building to another for-handicapped students?</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr"/>
-      <c r="D54" t="inlineStr"/>
-      <c r="E54" t="inlineStr"/>
-      <c r="F54" t="inlineStr"/>
-      <c r="G54" t="inlineStr"/>
-      <c r="H54" t="inlineStr"/>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="inlineStr"/>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>3. Do your institution buildings have specially designed toilets for handicapped students?</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>Yes, more than 80% of the buildings</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr"/>
-      <c r="D55" t="inlineStr"/>
-      <c r="E55" t="inlineStr"/>
-      <c r="F55" t="inlineStr"/>
-      <c r="G55" t="inlineStr"/>
-      <c r="H55" t="inlineStr"/>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="inlineStr"/>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>Number of faculty members entered</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>597</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr"/>
-      <c r="D56" t="inlineStr"/>
-      <c r="E56" t="inlineStr"/>
-      <c r="F56" t="inlineStr"/>
-      <c r="G56" t="inlineStr"/>
-      <c r="H56" t="inlineStr"/>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
